--- a/dataset/Mapper.xlsx
+++ b/dataset/Mapper.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Programacion\Constellation_Detector\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Programacion\Constellation_Detector\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,563 +14,563 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
-    <t>Andromeda – Royal Sea Monster Bait</t>
-  </si>
-  <si>
-    <t>Antlia – Air Pump</t>
-  </si>
-  <si>
-    <t>Apus – Bird of Paradise</t>
-  </si>
-  <si>
-    <t>Aquarius – Water-Bearer</t>
-  </si>
-  <si>
-    <t>Aquila – Thunderbolt Eagle</t>
-  </si>
-  <si>
-    <t>Ara – Altar</t>
-  </si>
-  <si>
-    <t>Aries – Ram</t>
-  </si>
-  <si>
-    <t>Auriga – Charioteer</t>
-  </si>
-  <si>
-    <t>Boötes – Herdsman</t>
-  </si>
-  <si>
-    <t>Caelum – Chisel</t>
-  </si>
-  <si>
-    <t>Camelopardalis – Giraffe</t>
-  </si>
-  <si>
-    <t>Cancer – Crab</t>
-  </si>
-  <si>
-    <t>Canes Venatici – Hunting Dogs</t>
-  </si>
-  <si>
-    <t>Canis Major – Big Dog</t>
-  </si>
-  <si>
-    <t>Canis Minor – Small Dog</t>
-  </si>
-  <si>
-    <t>Carina – Keel of Argo Navis</t>
-  </si>
-  <si>
-    <t>Cassiopeia – Vain Queen</t>
-  </si>
-  <si>
-    <t>Centaurus – Centaur</t>
-  </si>
-  <si>
-    <t>Cepheus – King</t>
-  </si>
-  <si>
-    <t>Cetus – Whale</t>
-  </si>
-  <si>
-    <t>Chamaeleon – Chameleon</t>
-  </si>
-  <si>
-    <t>Circinus – Compass</t>
-  </si>
-  <si>
-    <t>Columba – Dove</t>
-  </si>
-  <si>
-    <t>Coma Berenices – Berenice’s Hair</t>
-  </si>
-  <si>
-    <t>Corona Australis – Southern Crown</t>
-  </si>
-  <si>
-    <t>Corona Borealis – Northern Crown</t>
-  </si>
-  <si>
-    <t>Corvus – Raven</t>
-  </si>
-  <si>
-    <t>Crater – Cup</t>
-  </si>
-  <si>
-    <t>Crux – Southern Cross</t>
-  </si>
-  <si>
-    <t>Cygnus – Swan</t>
-  </si>
-  <si>
-    <t>Delphinus – Dolphin</t>
-  </si>
-  <si>
-    <t>Dorado – Fish</t>
-  </si>
-  <si>
-    <t>Draco – Dragon</t>
-  </si>
-  <si>
-    <t>Equuleus – Little Horse</t>
-  </si>
-  <si>
-    <t>Eridanus – River</t>
-  </si>
-  <si>
-    <t>Fornax – Furnace</t>
-  </si>
-  <si>
-    <t>Gemini – Twins</t>
-  </si>
-  <si>
-    <t>Grus – Crane</t>
-  </si>
-  <si>
-    <t>Hercules – Strong Man</t>
-  </si>
-  <si>
-    <t>Horologium – Pendulum Clock</t>
-  </si>
-  <si>
-    <t>Hydra – Water Serpent</t>
-  </si>
-  <si>
-    <t>Hydrus – Watersnake</t>
-  </si>
-  <si>
-    <t>Indus – Indian</t>
-  </si>
-  <si>
-    <t>Lacerta – Lizard</t>
-  </si>
-  <si>
-    <t>Leo – Lion</t>
-  </si>
-  <si>
-    <t>Leo Minor – Little Lion</t>
-  </si>
-  <si>
-    <t>Lepus – Hare/Rabbit</t>
-  </si>
-  <si>
-    <t>Libra – Scales</t>
-  </si>
-  <si>
-    <t>Lupus – Wolf</t>
-  </si>
-  <si>
-    <t>Lynx – Lynx</t>
-  </si>
-  <si>
-    <t>Lyra – Harp</t>
-  </si>
-  <si>
-    <t>Mensa – Table Mountain</t>
-  </si>
-  <si>
-    <t>Microscopium – Microscope</t>
-  </si>
-  <si>
-    <t>Monoceros – Unicorn</t>
-  </si>
-  <si>
-    <t>Musca – Fly</t>
-  </si>
-  <si>
-    <t>Norma – Level</t>
-  </si>
-  <si>
-    <t>Octans – Octant</t>
-  </si>
-  <si>
-    <t>Ophiuchus – Serpent-Bearer</t>
-  </si>
-  <si>
-    <t>Orion – Hunter</t>
-  </si>
-  <si>
-    <t>Pavo – Peacock</t>
-  </si>
-  <si>
-    <t>Pegasus – Winged horse</t>
-  </si>
-  <si>
-    <t>Perseus – Greek Hero</t>
-  </si>
-  <si>
-    <t>Phoenix – Firebird</t>
-  </si>
-  <si>
-    <t>Pictor – Painter’s Easel</t>
-  </si>
-  <si>
-    <t>Pisces – Fishes</t>
-  </si>
-  <si>
-    <t>Piscis Austrinus – Southern Fish</t>
-  </si>
-  <si>
-    <t>Puppis – Stern of Argo Navis</t>
-  </si>
-  <si>
-    <t>Pyxis – Compass</t>
-  </si>
-  <si>
-    <t>Reticulum – Reticle</t>
-  </si>
-  <si>
-    <t>Sagitta – Arrow</t>
-  </si>
-  <si>
-    <t>Sagittarius – Archer</t>
-  </si>
-  <si>
-    <t>Scorpius – Scorpion</t>
-  </si>
-  <si>
-    <t>Sculptor – Sculptor</t>
-  </si>
-  <si>
-    <t>Scutum – Shield</t>
-  </si>
-  <si>
-    <t>Serpens – Serpent</t>
-  </si>
-  <si>
-    <t>Sextans – Sextant</t>
-  </si>
-  <si>
-    <t>Taurus – Bull</t>
-  </si>
-  <si>
-    <t>Telescopium – Telescope</t>
-  </si>
-  <si>
-    <t>Triangulum – Triangle</t>
-  </si>
-  <si>
-    <t>Triangulum Australe – Southern triangle</t>
-  </si>
-  <si>
-    <t>Tucana – Toucan</t>
-  </si>
-  <si>
-    <t>Ursa Major – Big bear</t>
-  </si>
-  <si>
-    <t>Ursa Minor – Small bear</t>
-  </si>
-  <si>
-    <t>Vela – Sails of Argo Navis</t>
-  </si>
-  <si>
-    <t>Virgo – Young Maiden</t>
-  </si>
-  <si>
-    <t>Volans – Flying Fish</t>
-  </si>
-  <si>
-    <t>Vulpecula – Little Fox</t>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Constellation</t>
   </si>
   <si>
     <t>image0.jpg</t>
   </si>
   <si>
+    <t>Andromeda</t>
+  </si>
+  <si>
     <t>image1.jpg</t>
   </si>
   <si>
+    <t>Antlia</t>
+  </si>
+  <si>
     <t>image2.jpg</t>
   </si>
   <si>
+    <t>Apus</t>
+  </si>
+  <si>
     <t>image3.jpg</t>
   </si>
   <si>
+    <t>Aquarius</t>
+  </si>
+  <si>
     <t>image4.jpg</t>
   </si>
   <si>
+    <t>Aquila</t>
+  </si>
+  <si>
     <t>image5.jpg</t>
   </si>
   <si>
+    <t>Ara</t>
+  </si>
+  <si>
     <t>image6.jpg</t>
   </si>
   <si>
+    <t>Aries</t>
+  </si>
+  <si>
     <t>image7.jpg</t>
   </si>
   <si>
+    <t>Auriga</t>
+  </si>
+  <si>
     <t>image8.jpg</t>
   </si>
   <si>
+    <t>Boötes</t>
+  </si>
+  <si>
     <t>image9.jpg</t>
   </si>
   <si>
+    <t>Caelum</t>
+  </si>
+  <si>
     <t>image10.jpg</t>
   </si>
   <si>
+    <t>Camelopardalis</t>
+  </si>
+  <si>
     <t>image11.jpg</t>
   </si>
   <si>
+    <t>Cancer</t>
+  </si>
+  <si>
     <t>image12.jpg</t>
   </si>
   <si>
+    <t>Canes Venatici</t>
+  </si>
+  <si>
     <t>image13.jpg</t>
   </si>
   <si>
+    <t>Canis Major</t>
+  </si>
+  <si>
     <t>image14.jpg</t>
   </si>
   <si>
+    <t>Canis Minor</t>
+  </si>
+  <si>
     <t>image15.jpg</t>
   </si>
   <si>
+    <t>Capricornus</t>
+  </si>
+  <si>
     <t>image16.jpg</t>
   </si>
   <si>
+    <t>Carina</t>
+  </si>
+  <si>
     <t>image17.jpg</t>
   </si>
   <si>
+    <t>Cassiopeia</t>
+  </si>
+  <si>
     <t>image18.jpg</t>
   </si>
   <si>
+    <t>Centaurus</t>
+  </si>
+  <si>
     <t>image19.jpg</t>
   </si>
   <si>
+    <t>Cepheus</t>
+  </si>
+  <si>
     <t>image20.jpg</t>
   </si>
   <si>
+    <t>Cetus</t>
+  </si>
+  <si>
     <t>image21.jpg</t>
   </si>
   <si>
+    <t>Chamaeleon</t>
+  </si>
+  <si>
     <t>image22.jpg</t>
   </si>
   <si>
+    <t>Circinus</t>
+  </si>
+  <si>
     <t>image23.jpg</t>
   </si>
   <si>
+    <t>Columba</t>
+  </si>
+  <si>
     <t>image24.jpg</t>
   </si>
   <si>
+    <t>Coma Berenices</t>
+  </si>
+  <si>
     <t>image25.jpg</t>
   </si>
   <si>
+    <t>Corona Australis</t>
+  </si>
+  <si>
     <t>image26.jpg</t>
   </si>
   <si>
+    <t>Corona Borealis</t>
+  </si>
+  <si>
     <t>image27.jpg</t>
   </si>
   <si>
+    <t>Corvus</t>
+  </si>
+  <si>
     <t>image28.jpg</t>
   </si>
   <si>
+    <t>Crater</t>
+  </si>
+  <si>
     <t>image29.jpg</t>
   </si>
   <si>
+    <t>Crux</t>
+  </si>
+  <si>
     <t>image30.jpg</t>
   </si>
   <si>
+    <t>Cygnus</t>
+  </si>
+  <si>
     <t>image31.jpg</t>
   </si>
   <si>
+    <t>Delphinus</t>
+  </si>
+  <si>
     <t>image32.jpg</t>
   </si>
   <si>
+    <t>Dorado</t>
+  </si>
+  <si>
     <t>image33.jpg</t>
   </si>
   <si>
+    <t>Draco</t>
+  </si>
+  <si>
     <t>image34.jpg</t>
   </si>
   <si>
+    <t>Equuleus</t>
+  </si>
+  <si>
     <t>image35.jpg</t>
   </si>
   <si>
+    <t>Eridanus</t>
+  </si>
+  <si>
     <t>image36.jpg</t>
   </si>
   <si>
+    <t>Fornax</t>
+  </si>
+  <si>
     <t>image37.jpg</t>
   </si>
   <si>
+    <t>Gemini</t>
+  </si>
+  <si>
     <t>image38.jpg</t>
   </si>
   <si>
+    <t>Grus</t>
+  </si>
+  <si>
     <t>image39.jpg</t>
   </si>
   <si>
+    <t>Hercules</t>
+  </si>
+  <si>
     <t>image40.jpg</t>
   </si>
   <si>
+    <t>Horologium</t>
+  </si>
+  <si>
     <t>image41.jpg</t>
   </si>
   <si>
+    <t>Hydra</t>
+  </si>
+  <si>
     <t>image42.jpg</t>
   </si>
   <si>
+    <t>Hydrus</t>
+  </si>
+  <si>
     <t>image43.jpg</t>
   </si>
   <si>
+    <t>Indus</t>
+  </si>
+  <si>
     <t>image44.jpg</t>
   </si>
   <si>
+    <t>Lacerta</t>
+  </si>
+  <si>
     <t>image45.jpg</t>
   </si>
   <si>
+    <t>Leo</t>
+  </si>
+  <si>
     <t>image46.jpg</t>
   </si>
   <si>
+    <t>Leo Minor</t>
+  </si>
+  <si>
     <t>image47.jpg</t>
   </si>
   <si>
+    <t>Lepus</t>
+  </si>
+  <si>
     <t>image48.jpg</t>
   </si>
   <si>
+    <t>Libra</t>
+  </si>
+  <si>
+    <t>image49.jpg</t>
+  </si>
+  <si>
+    <t>Lupus</t>
+  </si>
+  <si>
+    <t>image50.jpg</t>
+  </si>
+  <si>
+    <t>Lynx</t>
+  </si>
+  <si>
+    <t>image51.jpg</t>
+  </si>
+  <si>
+    <t>Lyra</t>
+  </si>
+  <si>
+    <t>image52.jpg</t>
+  </si>
+  <si>
+    <t>Mensa</t>
+  </si>
+  <si>
+    <t>image53.jpg</t>
+  </si>
+  <si>
+    <t>Microscopium</t>
+  </si>
+  <si>
+    <t>image54.jpg</t>
+  </si>
+  <si>
+    <t>Monoceros</t>
+  </si>
+  <si>
+    <t>image55.jpg</t>
+  </si>
+  <si>
+    <t>Musca</t>
+  </si>
+  <si>
+    <t>image56.jpg</t>
+  </si>
+  <si>
+    <t>Norma</t>
+  </si>
+  <si>
+    <t>image57.jpg</t>
+  </si>
+  <si>
+    <t>Octans</t>
+  </si>
+  <si>
+    <t>image58.jpg</t>
+  </si>
+  <si>
+    <t>Ophiuchus</t>
+  </si>
+  <si>
+    <t>image59.jpg</t>
+  </si>
+  <si>
+    <t>Orion</t>
+  </si>
+  <si>
+    <t>image60.jpg</t>
+  </si>
+  <si>
+    <t>Pavo</t>
+  </si>
+  <si>
+    <t>image61.jpg</t>
+  </si>
+  <si>
+    <t>Pegasus</t>
+  </si>
+  <si>
+    <t>image62.jpg</t>
+  </si>
+  <si>
+    <t>Perseus</t>
+  </si>
+  <si>
+    <t>image63.jpg</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>image64.jpg</t>
+  </si>
+  <si>
+    <t>Pictor</t>
+  </si>
+  <si>
+    <t>image65.jpg</t>
+  </si>
+  <si>
+    <t>Pisces</t>
+  </si>
+  <si>
+    <t>image66.jpg</t>
+  </si>
+  <si>
+    <t>Piscis Austrinus</t>
+  </si>
+  <si>
+    <t>image67.jpg</t>
+  </si>
+  <si>
+    <t>Puppis</t>
+  </si>
+  <si>
+    <t>image68.jpg</t>
+  </si>
+  <si>
+    <t>Pyxis</t>
+  </si>
+  <si>
+    <t>image69.jpg</t>
+  </si>
+  <si>
+    <t>Reticulum</t>
+  </si>
+  <si>
+    <t>image70.jpg</t>
+  </si>
+  <si>
+    <t>Sagitta</t>
+  </si>
+  <si>
+    <t>image71.jpg</t>
+  </si>
+  <si>
+    <t>Sagittarius</t>
+  </si>
+  <si>
+    <t>image72.jpg</t>
+  </si>
+  <si>
+    <t>Scorpius</t>
+  </si>
+  <si>
+    <t>image73.jpg</t>
+  </si>
+  <si>
+    <t>Sculptor</t>
+  </si>
+  <si>
+    <t>image74.jpg</t>
+  </si>
+  <si>
+    <t>Scutum</t>
+  </si>
+  <si>
+    <t>image75.jpg</t>
+  </si>
+  <si>
+    <t>Serpens</t>
+  </si>
+  <si>
+    <t>image76.jpg</t>
+  </si>
+  <si>
+    <t>Sextans</t>
+  </si>
+  <si>
+    <t>image77.jpg</t>
+  </si>
+  <si>
+    <t>Taurus</t>
+  </si>
+  <si>
+    <t>image78.jpg</t>
+  </si>
+  <si>
+    <t>Telescopium</t>
+  </si>
+  <si>
+    <t>image79.jpg</t>
+  </si>
+  <si>
+    <t>Triangulum</t>
+  </si>
+  <si>
+    <t>image80.jpg</t>
+  </si>
+  <si>
+    <t>Triangulum Australe</t>
+  </si>
+  <si>
+    <t>image81.jpg</t>
+  </si>
+  <si>
+    <t>Tucana</t>
+  </si>
+  <si>
+    <t>image82.jpg</t>
+  </si>
+  <si>
+    <t>Ursa Major</t>
+  </si>
+  <si>
+    <t>image83.jpg</t>
+  </si>
+  <si>
+    <t>Ursa Minor</t>
+  </si>
+  <si>
+    <t>image84.jpg</t>
+  </si>
+  <si>
+    <t>Vela</t>
+  </si>
+  <si>
+    <t>image85.jpg</t>
+  </si>
+  <si>
+    <t>Virgo</t>
+  </si>
+  <si>
+    <t>image86.jpg</t>
+  </si>
+  <si>
+    <t>Volans</t>
+  </si>
+  <si>
     <t>image87.jpg</t>
   </si>
   <si>
-    <t>image86.jpg</t>
-  </si>
-  <si>
-    <t>image85.jpg</t>
-  </si>
-  <si>
-    <t>image84.jpg</t>
-  </si>
-  <si>
-    <t>image83.jpg</t>
-  </si>
-  <si>
-    <t>image82.jpg</t>
-  </si>
-  <si>
-    <t>image81.jpg</t>
-  </si>
-  <si>
-    <t>image80.jpg</t>
-  </si>
-  <si>
-    <t>image79.jpg</t>
-  </si>
-  <si>
-    <t>image78.jpg</t>
-  </si>
-  <si>
-    <t>image77.jpg</t>
-  </si>
-  <si>
-    <t>image76.jpg</t>
-  </si>
-  <si>
-    <t>image75.jpg</t>
-  </si>
-  <si>
-    <t>image74.jpg</t>
-  </si>
-  <si>
-    <t>image73.jpg</t>
-  </si>
-  <si>
-    <t>image72.jpg</t>
-  </si>
-  <si>
-    <t>image71.jpg</t>
-  </si>
-  <si>
-    <t>image70.jpg</t>
-  </si>
-  <si>
-    <t>image69.jpg</t>
-  </si>
-  <si>
-    <t>image68.jpg</t>
-  </si>
-  <si>
-    <t>image67.jpg</t>
-  </si>
-  <si>
-    <t>image66.jpg</t>
-  </si>
-  <si>
-    <t>image65.jpg</t>
-  </si>
-  <si>
-    <t>image64.jpg</t>
-  </si>
-  <si>
-    <t>image63.jpg</t>
-  </si>
-  <si>
-    <t>image62.jpg</t>
-  </si>
-  <si>
-    <t>image61.jpg</t>
-  </si>
-  <si>
-    <t>image60.jpg</t>
-  </si>
-  <si>
-    <t>image59.jpg</t>
-  </si>
-  <si>
-    <t>image58.jpg</t>
-  </si>
-  <si>
-    <t>image57.jpg</t>
-  </si>
-  <si>
-    <t>image56.jpg</t>
-  </si>
-  <si>
-    <t>image55.jpg</t>
-  </si>
-  <si>
-    <t>image54.jpg</t>
-  </si>
-  <si>
-    <t>image53.jpg</t>
-  </si>
-  <si>
-    <t>image52.jpg</t>
-  </si>
-  <si>
-    <t>image51.jpg</t>
-  </si>
-  <si>
-    <t>image50.jpg</t>
-  </si>
-  <si>
-    <t>image49.jpg</t>
-  </si>
-  <si>
-    <t>Capricornus – Sea Goat</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Constellation</t>
+    <t>Vulpecula</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -581,7 +581,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -589,18 +589,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -623,44 +641,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -687,15 +705,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -722,7 +739,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -734,142 +750,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -877,725 +917,724 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" t="s">
-        <v>177</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>123</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="B44" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>172</v>
+        <v>104</v>
       </c>
       <c r="B53" t="s">
-        <v>50</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>168</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>167</v>
+        <v>114</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>164</v>
+        <v>120</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
-        <v>66</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="B72" t="s">
-        <v>69</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B77" t="s">
-        <v>74</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B80" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B82" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>165</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="B85" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="B86" t="s">
-        <v>83</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="B87" t="s">
-        <v>84</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="B88" t="s">
-        <v>85</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dataset/Mapper.xlsx
+++ b/dataset/Mapper.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Programacion\Constellation_Detector\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Programacion\Constellation_Detector\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -917,7 +917,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/dataset/Mapper.xlsx
+++ b/dataset/Mapper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B90"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1513,6 +1513,282 @@
         </is>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>image89.jpg</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Andromeda</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>image90.jpg</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Andromeda</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>image91.jpg</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Andromeda</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>image92.jpg</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Andromeda</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>image93.jpg</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Antlia</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>image94.jpg</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Antlia</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>image95.jpg</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Antlia</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>image96.jpg</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Antlia</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>image97.jpg</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Antlia</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>image98.jpg</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Apus</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>image99.jpg</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Apus</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>image100.jpg</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Apus</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>image101.jpg</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Apus</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>image102.jpg</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Apus</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>image103.jpg</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Apus</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>image104.jpg</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Aquarius</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>image105.jpg</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Aquarius</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>image106.jpg</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Aquarius</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>image107.jpg</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Aquarius</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>image108.jpg</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Aquarius</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>image109.jpg</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Aquila</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>image110.jpg</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Aquila</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>image111.jpg</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Aquila</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dataset/Mapper.xlsx
+++ b/dataset/Mapper.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1789,6 +1789,2862 @@
         </is>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>image112.jpg</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Andromeda</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>image113.jpg</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Apus</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>image114.jpg</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Apus</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>image115.jpg</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Ara</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>image116.jpg</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Ara</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>image117.jpg</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Ara</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>image118.jpg</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Aries</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>image119.jpg</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Aries</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>image120.jpg</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Aries</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>image121.jpg</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Aries</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>image122.jpg</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Aries</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>image123.jpg</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Aries</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>image124.jpg</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Aries</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>image125.jpg</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Auriga</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>image126.jpg</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Auriga</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>image127.jpg</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Auriga</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>image128.jpg</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Auriga</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>image129.jpg</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Auriga</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>image130.jpg</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Auriga</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>image131.jpg</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Boötes</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>image132.jpg</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Boötes</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>image133.jpg</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Boötes</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>image134.jpg</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Boötes</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>image135.jpg</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Boötes</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>image136.jpg</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Caelum</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>image137.jpg</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Caelum</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>image138.jpg</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Caelum</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>image139.jpg</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Caelum</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>image140.jpg</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Caelum</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>image141.jpg</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Camelopardalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>image142.jpg</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Camelopardalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>image143.jpg</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Camelopardalis</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>image144.jpg</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Cancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>image145.jpg</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Cancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>image146.jpg</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Cancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>image147.jpg</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Cancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>image148.jpg</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Cancer</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>image149.jpg</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Canes Venatici</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>image150.jpg</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Canes Venatici</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>image151.jpg</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Canes Venatici</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>image152.jpg</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Canis Major</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>image153.jpg</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Canis Major</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>image154.jpg</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Canis Major</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>image155.jpg</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Canis Major</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>image156.jpg</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Canis Major</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>image157.jpg</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Canis Major</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>image158.jpg</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Canis Major</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>image159.jpg</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Canis Major</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>image160.jpg</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Canis Minor</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>image161.jpg</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Canis Minor</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>image162.jpg</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Canis Minor</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>image163.jpg</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Canis Minor</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>image164.jpg</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Canis Minor</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>image165.jpg</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Capricornus</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>image166.jpg</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Capricornus</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>image167.jpg</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Capricornus</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>image168.jpg</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Capricornus</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>image169.jpg</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Capricornus</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>image170.jpg</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Carina</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>image171.jpg</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Carina</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>image172.jpg</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Carina</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>image173.jpg</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Carina</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>image174.jpg</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Carina</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>image175.jpg</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Cassiopeia</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>image176.jpg</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Cassiopeia</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>image177.jpg</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Cassiopeia</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>image178.jpg</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Cassiopeia</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>image179.jpg</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Centaurus</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>image180.jpg</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Centaurus</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>image181.jpg</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Centaurus</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>image182.jpg</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Centaurus</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>image183.jpg</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Cepheus</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>image184.jpg</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Cepheus</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>image185.jpg</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Cepheus</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>image186.jpg</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Cetus</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>image187.jpg</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Cetus</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>image188.jpg</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Chamaeleon</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>image189.jpg</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Chamaeleon</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>image190.jpg</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Chamaeleon</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>image191.jpg</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Chamaeleon</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>image192.jpg</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Circinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>image193.jpg</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Circinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>image194.jpg</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Columba</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>image195.jpg</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Columba</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>image196.jpg</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Columba</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>image197.jpg</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Columba</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>image198.jpg</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Coma Berenices</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>image199.jpg</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Coma Berenices</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>image200.jpg</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Coma Berenices</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>image201.jpg</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Corona Australis</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>image202.jpg</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Corona Australis</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>image203.jpg</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Corona Australis</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>image204.jpg</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Corona Borealis</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>image205.jpg</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Corona Borealis</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>image206.jpg</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Corona Borealis</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>image207.jpg</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Corvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>image208.jpg</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Corvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>image209.jpg</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Corvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>image210.jpg</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Corvus</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>image211.jpg</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Crater</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>image212.jpg</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Crater</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>image213.jpg</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Crater</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>image214.jpg</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Crater</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>image215.jpg</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Crux</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>image216.jpg</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Crux</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>image217.jpg</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Crux</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>image218.jpg</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Cygnus</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>image219.jpg</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Cygnus</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>image220.jpg</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Cygnus</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>image221.jpg</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Cygnus</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>image222.jpg</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Cygnus</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>image223.jpg</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Cygnus</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>image224.jpg</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Delphinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>image225.jpg</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Delphinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>image226.jpg</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Delphinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>image227.jpg</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Delphinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>image228.jpg</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Dorado</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>image229.jpg</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Dorado</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>image230.jpg</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Draco</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>image231.jpg</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Draco</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>image232.jpg</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Draco</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>image233.jpg</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Draco</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>image234.jpg</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Draco</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>image235.jpg</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Equuleus</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>image236.jpg</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Equuleus</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>image237.jpg</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Eridanus</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>image238.jpg</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Eridanus</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>image239.jpg</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Eridanus</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>image240.jpg</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Eridanus</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>image241.jpg</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Eridanus</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>image242.jpg</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Fornax</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>image243.jpg</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Fornax</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>image244.jpg</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>image245.jpg</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>image246.jpg</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Gemini</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>image247.jpg</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Hercules</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>image248.jpg</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Hercules</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>image249.jpg</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Hercules</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>image250.jpg</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Horologium</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>image251.jpg</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Horologium</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>image252.jpg</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Horologium</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>image253.jpg</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Hydra</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>image254.jpg</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Hydra</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>image255.jpg</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Hydra</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>image256.jpg</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Hydra</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>image257.jpg</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Hydrus</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>image258.jpg</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Hydrus</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>image259.jpg</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Indus</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>image260.jpg</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Indus</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>image261.jpg</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Indus</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>image262.jpg</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Indus</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>image263.jpg</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Lacerta</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>image264.jpg</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Lacerta</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>image265.jpg</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Leo</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>image266.jpg</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Leo</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>image267.jpg</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Leo</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>image268.jpg</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Leo</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>image269.jpg</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Leo Minor</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>image270.jpg</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Leo Minor</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>image271.jpg</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Lepus</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>image272.jpg</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Lepus</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>image273.jpg</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Libra</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>image274.jpg</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Libra</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>image275.jpg</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Libra</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>image276.jpg</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Lepus</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>image277.jpg</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Lynx</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>image278.jpg</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Lynx</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>image279.jpg</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Lynx</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>image280.jpg</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Lynx</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>image281.jpg</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Lyra</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>image282.jpg</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Lyra</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>image283.jpg</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Mensa</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>image284.jpg</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Mensa</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>image285.jpg</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Microscopium</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>image286.jpg</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Microscopium</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>image287.jpg</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Monoceros</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>image288.jpg</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Monoceros</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>image289.jpg</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Monoceros</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>image290.jpg</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Musca</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>image291.jpg</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Musca</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>image292.jpg</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Norma</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>image293.jpg</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Octans</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>image294.jpg</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Octans</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>image295.jpg</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Ophiuchus</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>image296.jpg</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Ophiuchus</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>image297.jpg</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Orion</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>image298.jpg</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Orion</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>image299.jpg</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Orion</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>image300.jpg</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Orion</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>image301.jpg</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Pavo</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>image302.jpg</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Pavo</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>image303.jpg</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Pegasus</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>image304.jpg</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Pegasus</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>image305.jpg</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Pegasus</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>image306.jpg</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Perseus</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>image307.jpg</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Perseus</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>image308.jpg</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Perseus</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>image309.jpg</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Phoenix</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>image310.jpg</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Pictor</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>image311.jpg</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Pictor</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>image312.jpg</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Pisces</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>image313.jpg</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Pisces</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>image314.jpg</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Pisces</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>image315.jpg</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Piscis Austrinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>image316.jpg</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Piscis Austrinus</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>image317.jpg</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Puppis</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>image318.jpg</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Puppis</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>image319.jpg</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Pyxis</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>image320.jpg</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Pyxis</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>image321.jpg</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Reticulum</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>image322.jpg</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Sagitta</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>image323.jpg</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Sagitta</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>image324.jpg</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Sagitta</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>image325.jpg</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Sagittarius</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>image326.jpg</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Sagittarius</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>image327.jpg</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Sagittarius</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>image328.jpg</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Scorpius</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>image329.jpg</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Scorpius</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>image330.jpg</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Scorpius</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>image331.jpg</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Sculptor</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>image332.jpg</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Serpens</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>image333.jpg</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Serpens</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>image334.jpg</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Serpens</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>image335.jpg</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Taurus</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>image336.jpg</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Taurus</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>image337.jpg</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Taurus</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>image338.jpg</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Telescopium</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>image339.jpg</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Telescopium</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>image340.jpg</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Triangulum</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>image341.jpg</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Triangulum</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>image342.jpg</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Ursa Major</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>image343.jpg</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Ursa Major</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>image344.jpg</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Ursa Major</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>image345.jpg</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Ursa Minor</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>image346.jpg</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Ursa Minor</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>image347.jpg</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Ursa Minor</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>image348.jpg</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Virgo</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>image349.jpg</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Virgo</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
